--- a/data/trans_camb/P1_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 7,66</t>
+          <t>-0,8; 7,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,6; 18,73</t>
+          <t>9,06; 19,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 13,45</t>
+          <t>4,79; 13,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 9,11</t>
+          <t>-1,52; 9,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 10,3</t>
+          <t>0,18; 10,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 11,2</t>
+          <t>2,85; 11,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 6,68</t>
+          <t>-0,15; 6,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,29; 13,77</t>
+          <t>6,23; 13,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 11,7</t>
+          <t>5,57; 11,72</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 130,38</t>
+          <t>-8,96; 125,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,87; 312,72</t>
+          <t>90,54; 313,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47,31; 219,17</t>
+          <t>45,84; 231,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 123,59</t>
+          <t>-14,27; 142,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 146,99</t>
+          <t>1,81; 154,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,55; 178,25</t>
+          <t>21,22; 166,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 95,9</t>
+          <t>-1,62; 93,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,64; 193,9</t>
+          <t>59,8; 192,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>56,54; 170,94</t>
+          <t>54,95; 165,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 1,55</t>
+          <t>-8,18; 0,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 2,59</t>
+          <t>-7,06; 2,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 11,45</t>
+          <t>0,94; 11,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 4,7</t>
+          <t>-3,07; 4,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 9,83</t>
+          <t>0,76; 10,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 10,83</t>
+          <t>2,53; 10,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,52</t>
+          <t>-4,34; 1,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 4,8</t>
+          <t>-1,77; 4,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 9,84</t>
+          <t>3,22; 10,27</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,6; 17,8</t>
+          <t>-55,98; 10,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-50,78; 25,4</t>
+          <t>-46,43; 26,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 121,19</t>
+          <t>4,45; 123,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,2; 84,9</t>
+          <t>-35,73; 89,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 176,55</t>
+          <t>3,51; 180,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,81; 207,35</t>
+          <t>21,34; 185,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 18,54</t>
+          <t>-38,65; 21,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 58,83</t>
+          <t>-16,33; 53,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,67; 123,15</t>
+          <t>26,83; 132,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 5,76</t>
+          <t>-0,76; 5,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 8,32</t>
+          <t>1,96; 8,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 14,32</t>
+          <t>-2,27; 14,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 9,99</t>
+          <t>-0,8; 9,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 17,77</t>
+          <t>2,84; 18,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,31; 20,13</t>
+          <t>8,18; 20,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,72</t>
+          <t>0,53; 6,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,34</t>
+          <t>3,4; 9,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 14,57</t>
+          <t>-0,33; 14,77</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 139,91</t>
+          <t>-10,39; 137,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,65; 192,88</t>
+          <t>24,16; 199,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,08; 288,82</t>
+          <t>-30,76; 273,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 289,54</t>
+          <t>-8,97; 264,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,09; 465,92</t>
+          <t>23,88; 456,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>75,08; 567,08</t>
+          <t>73,43; 556,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,32; 122,44</t>
+          <t>6,45; 130,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,24; 200,28</t>
+          <t>47,78; 207,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 279,09</t>
+          <t>-3,89; 276,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,36</t>
+          <t>-0,12; 4,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,06</t>
+          <t>1,48; 6,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,42; 15,29</t>
+          <t>9,67; 15,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,81</t>
+          <t>-4,38; 0,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,4; 8,5</t>
+          <t>2,54; 8,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 8,51</t>
+          <t>-2,03; 8,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,06</t>
+          <t>-1,19; 2,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,56</t>
+          <t>2,66; 6,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 11,05</t>
+          <t>3,93; 11,14</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 75,19</t>
+          <t>-1,88; 73,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>18,0; 109,08</t>
+          <t>18,91; 107,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>122,25; 271,99</t>
+          <t>123,81; 281,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-52,86; 16,07</t>
+          <t>-52,38; 14,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,09; 145,79</t>
+          <t>26,63; 146,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 131,23</t>
+          <t>-24,11; 129,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 34,76</t>
+          <t>-15,68; 37,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>37,52; 107,04</t>
+          <t>35,86; 107,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>61,76; 176,65</t>
+          <t>58,81; 175,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 1,99</t>
+          <t>-6,62; 1,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 9,14</t>
+          <t>0,29; 9,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,73; 17,59</t>
+          <t>7,19; 17,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 5,62</t>
+          <t>-1,51; 5,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 6,55</t>
+          <t>-0,14; 6,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,91; 13,86</t>
+          <t>4,75; 13,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,4</t>
+          <t>-2,26; 3,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,73</t>
+          <t>1,28; 6,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,33; 14,5</t>
+          <t>7,13; 14,17</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-50,34; 28,78</t>
+          <t>-49,75; 25,04</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 118,33</t>
+          <t>1,26; 121,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>57,36; 227,63</t>
+          <t>53,85; 233,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 85,67</t>
+          <t>-14,84; 79,49</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 100,46</t>
+          <t>-1,57; 99,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>53,02; 206,32</t>
+          <t>52,06; 205,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 46,06</t>
+          <t>-20,69; 41,29</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>14,31; 92,46</t>
+          <t>11,37; 89,26</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>70,95; 198,59</t>
+          <t>70,34; 187,89</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,04</t>
+          <t>-2,11; 3,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,53; 9,81</t>
+          <t>2,32; 9,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 10,98</t>
+          <t>-0,85; 12,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 4,36</t>
+          <t>-0,66; 4,55</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,36</t>
+          <t>0,79; 6,58</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,46; 13,17</t>
+          <t>6,95; 13,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,76</t>
+          <t>-0,92; 3,65</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,72; 6,3</t>
+          <t>1,65; 6,58</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,3; 10,48</t>
+          <t>5,38; 10,67</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-63,81; 261,26</t>
+          <t>-66,76; 325,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>50,76; 768,5</t>
+          <t>39,6; 753,64</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-46,49; 930,81</t>
+          <t>-46,14; 870,54</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 47,0</t>
+          <t>-5,58; 49,89</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>4,07; 67,06</t>
+          <t>6,48; 70,93</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>63,13; 140,37</t>
+          <t>59,16; 142,94</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 46,35</t>
+          <t>-8,43; 44,76</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>16,05; 78,52</t>
+          <t>16,07; 83,88</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>53,84; 131,97</t>
+          <t>53,17; 137,07</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,29</t>
+          <t>-0,35; 2,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,75; 6,57</t>
+          <t>3,74; 6,7</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,52; 11,71</t>
+          <t>5,99; 11,64</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,61</t>
+          <t>-0,2; 2,58</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,11</t>
+          <t>3,01; 5,98</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,47</t>
+          <t>4,38; 9,5</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,19</t>
+          <t>0,1; 2,06</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,92</t>
+          <t>3,76; 5,89</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6,34; 10,14</t>
+          <t>6,44; 10,16</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 34,69</t>
+          <t>-4,26; 35,71</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>47,45; 98,19</t>
+          <t>46,44; 100,06</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>76,81; 171,08</t>
+          <t>80,99; 172,44</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 33,19</t>
+          <t>-2,47; 32,21</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>30,78; 74,85</t>
+          <t>31,99; 73,75</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>53,07; 116,95</t>
+          <t>48,68; 116,92</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>0,68; 29,12</t>
+          <t>1,08; 27,54</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>43,69; 79,08</t>
+          <t>44,27; 78,43</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>76,68; 134,22</t>
+          <t>79,22; 133,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
